--- a/2 задание/Проект часть 2, КЭ.xlsx
+++ b/2 задание/Проект часть 2, КЭ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959B91E0-0E47-46AB-A140-BE19EEF36508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9002C68-7080-4F0A-9B9A-C95F1F0E4F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,10 +129,10 @@
     <t>18:00, 18:01, 18:02/ 21:59, 22:00, 22:01</t>
   </si>
   <si>
-    <t xml:space="preserve">t=V*S (время равно путь разделить на  скорость(средняя скорость автомобиля из того диапазона, в котором поездка началась) </t>
-  </si>
-  <si>
-    <t>Стоимость поездки равно (путь разделить на  скорость(средняя скорость автомобиля из того диапазона, в котором поездка началась) умножить на стоимость на минуту (каршеринг, автомобиль, такси)</t>
+    <t xml:space="preserve">t=V*S (время равна путь разделить на  скорость(средняя скорость автомобиля из того диапазона, в котором поездка началась) </t>
+  </si>
+  <si>
+    <t>Стоимость поездки равна путь разделить на  скорость(средняя скорость автомобиля из того диапазона, в котором поездка началась) умножить на стоимость на минуту (каршеринг, автомобиль, такси)</t>
   </si>
 </sst>
 </file>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -309,6 +309,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -323,12 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -551,10 +548,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,45 +565,46 @@
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -614,7 +612,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -654,7 +652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -674,7 +672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -694,7 +692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -714,7 +712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -739,7 +737,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2 задание/Проект часть 2, КЭ.xlsx
+++ b/2 задание/Проект часть 2, КЭ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9002C68-7080-4F0A-9B9A-C95F1F0E4F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1E316-8DFE-401C-8850-77F85813B7D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16515" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Название класса</t>
   </si>
@@ -133,6 +133,29 @@
   </si>
   <si>
     <t>Стоимость поездки равна путь разделить на  скорость(средняя скорость автомобиля из того диапазона, в котором поездка началась) умножить на стоимость на минуту (каршеринг, автомобиль, такси)</t>
+  </si>
+  <si>
+    <t>Адрес "Куда" и "Откуда"   совпадают. 
+Точка А=В</t>
+  </si>
+  <si>
+    <t>Поля "Откуда" и "Куда" не совпадают. 
+Точка A&lt;&gt;B</t>
+  </si>
+  <si>
+    <t>Куда "Усачева, 3" (точка А) 
+Откуда "Усачева, 3"(точка B)</t>
+  </si>
+  <si>
+    <t>Куда "Комсомольский проспект, 18" 
+(точка A)
+Откуда "Зубовский бульвар, 37" (точка B)</t>
+  </si>
+  <si>
+    <t>набор</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
@@ -275,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -329,6 +352,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,16 +577,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
@@ -732,12 +761,76 @@
         <v>28</v>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="16">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2 задание/Проект часть 2, КЭ.xlsx
+++ b/2 задание/Проект часть 2, КЭ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1E316-8DFE-401C-8850-77F85813B7D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086812C-4A3A-4362-9611-2B02A20E4DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16515" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="16515" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t xml:space="preserve">t=V*S (время равна путь разделить на  скорость(средняя скорость автомобиля из того диапазона, в котором поездка началась) </t>
   </si>
   <si>
-    <t>Стоимость поездки равна путь разделить на  скорость(средняя скорость автомобиля из того диапазона, в котором поездка началась) умножить на стоимость на минуту (каршеринг, автомобиль, такси)</t>
-  </si>
-  <si>
     <t>Адрес "Куда" и "Откуда"   совпадают. 
 Точка А=В</t>
   </si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>нет</t>
+  </si>
+  <si>
+    <t>Стоимость поездки равна путь умножить на стоимость на километр (втомобиль)</t>
   </si>
 </sst>
 </file>
@@ -335,29 +335,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +580,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,39 +595,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -762,59 +762,65 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="E13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
@@ -825,12 +831,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2 задание/Проект часть 2, КЭ.xlsx
+++ b/2 задание/Проект часть 2, КЭ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086812C-4A3A-4362-9611-2B02A20E4DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0964035-8587-49B7-9B95-2C332376235D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="16515" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="16515" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,6 @@
 Точка А=В</t>
   </si>
   <si>
-    <t>Поля "Откуда" и "Куда" не совпадают. 
-Точка A&lt;&gt;B</t>
-  </si>
-  <si>
     <t>Куда "Усачева, 3" (точка А) 
 Откуда "Усачева, 3"(точка B)</t>
   </si>
@@ -156,6 +152,10 @@
   </si>
   <si>
     <t>Стоимость поездки равна путь умножить на стоимость на километр (втомобиль)</t>
+  </si>
+  <si>
+    <t>Поля "Откуда" и "Куда" не совпадают. 
+Точка A!=B</t>
   </si>
 </sst>
 </file>
@@ -335,29 +335,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,39 +595,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -762,65 +762,59 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="E13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
@@ -831,6 +825,12 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
